--- a/TestData(2).xlsx
+++ b/TestData(2).xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruchi\NEW_WorkPlace\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruchi\FX_Selenium\FIleXchange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949B084C-6611-49B8-B175-EB3376587699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75150F6-B29B-41FB-A2B6-E536A27298F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33450" yWindow="6420" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>UserName3</t>
   </si>
@@ -34,29 +34,22 @@
     <t>Password3</t>
   </si>
   <si>
-    <t>abhishek@regal-us.com</t>
-  </si>
-  <si>
-    <t>ruchita</t>
-  </si>
-  <si>
-    <t>sardesai</t>
-  </si>
-  <si>
-    <t>Abhi@123</t>
-  </si>
-  <si>
     <t>Chethan@regal-us.com</t>
   </si>
   <si>
     <t>Regal@123</t>
+  </si>
+  <si>
+    <t>Siri@1234</t>
+  </si>
+  <si>
+    <t>sirisha@regal-us.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,29 +381,29 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,23 +428,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B502DACF-C066-43D6-A707-87441E274F3C}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>